--- a/Data/FB_grouped.xlsx
+++ b/Data/FB_grouped.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thewillisgroup-my.sharepoint.com/personal/isoto_talentpath_com/Documents/H1B_and_Technology/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivvya\OneDrive\H1B_and_Technology\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_50F54F22067462023E1DAA53525ED87656CC2985" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{56871B84-7E6B-41F3-A1DB-35197C69A64E}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="11_50F54F22067462023E1DAA53525ED87656CC2985" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{DAC9D6BC-15A7-4E90-AEDB-E877EE0DB858}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1388,7 +1396,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1403,13 +1411,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1437,9 +1457,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1447,6 +1471,20 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1476,20 +1514,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1504,7 +1528,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5628CBF1-597F-4E66-949E-639CA870C471}" name="Table1" displayName="Table1" ref="A1:D450" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5628CBF1-597F-4E66-949E-639CA870C471}" name="Table1" displayName="Table1" ref="A1:D450" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
   <autoFilter ref="A1:D450" xr:uid="{C0ECAACB-F87E-4C04-8BE3-5B50F838D3C6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D450">
     <sortCondition descending="1" ref="B1:B450"/>
@@ -1804,21 +1828,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D450"/>
+  <dimension ref="A1:E450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1831,9 +1857,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>393</v>
       </c>
       <c r="B2">
@@ -1846,8 +1873,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B3">
@@ -1860,8 +1887,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>353</v>
       </c>
       <c r="B4">
@@ -1874,8 +1901,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B5">
@@ -1888,8 +1915,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>297</v>
       </c>
       <c r="B6">
@@ -1902,8 +1929,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B7">
@@ -1916,8 +1943,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B8">
@@ -1930,8 +1957,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>436</v>
       </c>
       <c r="B9">
@@ -1944,8 +1971,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>396</v>
       </c>
       <c r="B10">
@@ -1958,8 +1985,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>314</v>
       </c>
       <c r="B11">
@@ -1972,8 +1999,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B12">
@@ -1986,8 +2013,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B13">
@@ -2000,8 +2027,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>351</v>
       </c>
       <c r="B14">
@@ -2014,8 +2041,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B15">
@@ -2028,8 +2055,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B16">
@@ -2042,8 +2069,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>400</v>
       </c>
       <c r="B17">
@@ -2056,8 +2083,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B18">
@@ -2070,8 +2097,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>449</v>
       </c>
       <c r="B19">
@@ -2084,8 +2111,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B20">
@@ -2098,8 +2125,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B21">
@@ -2112,8 +2139,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B22">
@@ -2126,8 +2153,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>302</v>
       </c>
       <c r="B23">
@@ -2140,8 +2167,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>440</v>
       </c>
       <c r="B24">
@@ -2154,7 +2181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>172</v>
       </c>
@@ -2168,7 +2195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>243</v>
       </c>
@@ -2182,7 +2209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>378</v>
       </c>
@@ -2196,7 +2223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -2210,7 +2237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2224,7 +2251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -2238,7 +2265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>255</v>
       </c>
@@ -2252,7 +2279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>275</v>
       </c>
@@ -2266,7 +2293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -2280,7 +2307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>109</v>
       </c>
@@ -2294,7 +2321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -2308,7 +2335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>386</v>
       </c>
@@ -2322,7 +2349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>442</v>
       </c>
@@ -2336,7 +2363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -2350,7 +2377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -2364,7 +2391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>117</v>
       </c>
@@ -2378,7 +2405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>311</v>
       </c>
@@ -2392,7 +2419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>356</v>
       </c>
@@ -2406,7 +2433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -2420,7 +2447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -2434,7 +2461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -2448,7 +2475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>101</v>
       </c>
@@ -2462,7 +2489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -2476,7 +2503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>139</v>
       </c>
@@ -2490,7 +2517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -2504,7 +2531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>220</v>
       </c>
@@ -2518,7 +2545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>221</v>
       </c>
@@ -2532,7 +2559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>288</v>
       </c>
@@ -2546,7 +2573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>319</v>
       </c>
@@ -2560,7 +2587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>432</v>
       </c>
@@ -2574,7 +2601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>447</v>
       </c>
@@ -2588,7 +2615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -2602,7 +2629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -2616,7 +2643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>119</v>
       </c>
@@ -2630,7 +2657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>135</v>
       </c>
@@ -2644,7 +2671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>148</v>
       </c>
@@ -2658,7 +2685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>169</v>
       </c>
@@ -2672,7 +2699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -2686,7 +2713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>190</v>
       </c>
@@ -2700,7 +2727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>262</v>
       </c>
@@ -2714,7 +2741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>274</v>
       </c>
@@ -2728,7 +2755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>306</v>
       </c>
@@ -2742,7 +2769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>308</v>
       </c>
@@ -2756,7 +2783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>315</v>
       </c>
@@ -2770,7 +2797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>317</v>
       </c>
@@ -2784,7 +2811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>392</v>
       </c>
@@ -2798,7 +2825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>394</v>
       </c>
@@ -2812,7 +2839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>412</v>
       </c>
@@ -2826,7 +2853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>438</v>
       </c>
@@ -2840,7 +2867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -2854,7 +2881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>29</v>
       </c>
@@ -2868,7 +2895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>30</v>
       </c>
@@ -2882,7 +2909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -2896,7 +2923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>48</v>
       </c>
@@ -2910,7 +2937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>56</v>
       </c>
@@ -2924,7 +2951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>65</v>
       </c>
@@ -2938,7 +2965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>75</v>
       </c>
@@ -2952,7 +2979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -2966,7 +2993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -2980,7 +3007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -2994,7 +3021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>100</v>
       </c>
@@ -3008,7 +3035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>106</v>
       </c>
@@ -3022,7 +3049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>110</v>
       </c>
@@ -3036,7 +3063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>126</v>
       </c>
@@ -3050,7 +3077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>128</v>
       </c>
@@ -3064,7 +3091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>136</v>
       </c>
@@ -3078,7 +3105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>142</v>
       </c>
@@ -3092,7 +3119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>156</v>
       </c>
@@ -3106,7 +3133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>168</v>
       </c>
@@ -3120,7 +3147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>177</v>
       </c>
@@ -3134,7 +3161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>179</v>
       </c>
@@ -3148,7 +3175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>182</v>
       </c>
@@ -3162,7 +3189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>197</v>
       </c>
@@ -3176,7 +3203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>208</v>
       </c>
@@ -3190,7 +3217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>211</v>
       </c>
@@ -3204,7 +3231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>212</v>
       </c>
@@ -3218,7 +3245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>234</v>
       </c>
@@ -3232,7 +3259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>239</v>
       </c>
@@ -3246,7 +3273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>246</v>
       </c>
@@ -3260,7 +3287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>257</v>
       </c>
@@ -3274,7 +3301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>261</v>
       </c>
@@ -3288,7 +3315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>265</v>
       </c>
@@ -3302,7 +3329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>267</v>
       </c>
@@ -3316,7 +3343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>268</v>
       </c>
@@ -3330,7 +3357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>270</v>
       </c>
@@ -3344,7 +3371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>280</v>
       </c>
@@ -3358,7 +3385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>285</v>
       </c>
@@ -3372,7 +3399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>304</v>
       </c>
@@ -3386,7 +3413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>316</v>
       </c>
@@ -3400,7 +3427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>324</v>
       </c>
@@ -3414,7 +3441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>327</v>
       </c>
@@ -3428,7 +3455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>337</v>
       </c>
@@ -3442,7 +3469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>343</v>
       </c>
@@ -3456,7 +3483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>344</v>
       </c>
@@ -3470,7 +3497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>346</v>
       </c>
@@ -3484,7 +3511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>352</v>
       </c>
@@ -3498,7 +3525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>355</v>
       </c>
@@ -3512,7 +3539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>361</v>
       </c>
@@ -3526,7 +3553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>362</v>
       </c>
@@ -3540,7 +3567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>363</v>
       </c>
@@ -3554,7 +3581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>366</v>
       </c>
@@ -3568,7 +3595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>376</v>
       </c>
@@ -3582,7 +3609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>380</v>
       </c>
@@ -3596,7 +3623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>391</v>
       </c>
@@ -3610,7 +3637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>413</v>
       </c>
@@ -3624,7 +3651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>418</v>
       </c>
@@ -3638,7 +3665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>420</v>
       </c>
@@ -3652,7 +3679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>429</v>
       </c>
@@ -3666,7 +3693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>443</v>
       </c>
@@ -3680,7 +3707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>444</v>
       </c>
@@ -3694,7 +3721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>448</v>
       </c>
@@ -3708,7 +3735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>450</v>
       </c>
@@ -3722,7 +3749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -3736,7 +3763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -3750,7 +3777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -3764,7 +3791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -3778,7 +3805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -3792,7 +3819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -3806,7 +3833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>12</v>
       </c>
@@ -3820,7 +3847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -3834,7 +3861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>14</v>
       </c>
@@ -3848,7 +3875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>15</v>
       </c>
@@ -3862,7 +3889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>16</v>
       </c>
@@ -3876,7 +3903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -3890,7 +3917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>18</v>
       </c>
@@ -3904,7 +3931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -3918,7 +3945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>22</v>
       </c>
@@ -3932,7 +3959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>25</v>
       </c>
@@ -3946,7 +3973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>26</v>
       </c>
@@ -3960,7 +3987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>27</v>
       </c>
@@ -3974,7 +4001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>28</v>
       </c>
@@ -3988,7 +4015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>31</v>
       </c>
@@ -4002,7 +4029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>32</v>
       </c>
@@ -4016,7 +4043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>33</v>
       </c>
@@ -4030,7 +4057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>35</v>
       </c>
@@ -4044,7 +4071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>36</v>
       </c>
@@ -4058,7 +4085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>37</v>
       </c>
@@ -4072,7 +4099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>38</v>
       </c>
@@ -4086,7 +4113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>39</v>
       </c>
@@ -4100,7 +4127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>40</v>
       </c>
@@ -4114,7 +4141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>41</v>
       </c>
@@ -4128,7 +4155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>44</v>
       </c>
@@ -4142,7 +4169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>45</v>
       </c>
@@ -4156,7 +4183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>46</v>
       </c>
@@ -4170,7 +4197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>47</v>
       </c>
@@ -4184,7 +4211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>49</v>
       </c>
@@ -4198,7 +4225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>50</v>
       </c>
@@ -4212,7 +4239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>51</v>
       </c>
@@ -4226,7 +4253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>52</v>
       </c>
@@ -4240,7 +4267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>53</v>
       </c>
@@ -4254,7 +4281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>54</v>
       </c>
@@ -4268,7 +4295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>55</v>
       </c>
@@ -4282,7 +4309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>57</v>
       </c>
@@ -4296,7 +4323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>59</v>
       </c>
@@ -4310,7 +4337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>60</v>
       </c>
@@ -4324,7 +4351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>61</v>
       </c>
@@ -4338,7 +4365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>62</v>
       </c>
@@ -4352,7 +4379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>63</v>
       </c>
@@ -4366,7 +4393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>64</v>
       </c>
@@ -4380,7 +4407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>66</v>
       </c>
@@ -4394,7 +4421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>67</v>
       </c>
@@ -4408,7 +4435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>69</v>
       </c>
@@ -4422,7 +4449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>70</v>
       </c>
@@ -4436,7 +4463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>71</v>
       </c>
@@ -4450,7 +4477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>74</v>
       </c>
@@ -4464,7 +4491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>76</v>
       </c>
@@ -4478,7 +4505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>77</v>
       </c>
@@ -4492,7 +4519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>79</v>
       </c>
@@ -4506,7 +4533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>80</v>
       </c>
@@ -4520,7 +4547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>82</v>
       </c>
@@ -4534,7 +4561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>83</v>
       </c>
@@ -4548,7 +4575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>84</v>
       </c>
@@ -4562,7 +4589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>86</v>
       </c>
@@ -4576,7 +4603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>87</v>
       </c>
@@ -4590,7 +4617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>88</v>
       </c>
@@ -4604,7 +4631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>92</v>
       </c>
@@ -4618,7 +4645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>93</v>
       </c>
@@ -4632,7 +4659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>95</v>
       </c>
@@ -4646,7 +4673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>97</v>
       </c>
@@ -4660,7 +4687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>102</v>
       </c>
@@ -4674,7 +4701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>103</v>
       </c>
@@ -4688,7 +4715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>104</v>
       </c>
@@ -4702,7 +4729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>105</v>
       </c>
@@ -4716,7 +4743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>107</v>
       </c>
@@ -4730,7 +4757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>108</v>
       </c>
@@ -4744,7 +4771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>111</v>
       </c>
@@ -4758,7 +4785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>112</v>
       </c>
@@ -4772,7 +4799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>114</v>
       </c>
@@ -4786,7 +4813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>115</v>
       </c>
@@ -4800,7 +4827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>116</v>
       </c>
@@ -4814,7 +4841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>118</v>
       </c>
@@ -4828,7 +4855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>120</v>
       </c>
@@ -4842,7 +4869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>121</v>
       </c>
@@ -4856,7 +4883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>122</v>
       </c>
@@ -4870,7 +4897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>123</v>
       </c>
@@ -4884,7 +4911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>124</v>
       </c>
@@ -4898,7 +4925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>125</v>
       </c>
@@ -4912,7 +4939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>127</v>
       </c>
@@ -4926,7 +4953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>129</v>
       </c>
@@ -4940,7 +4967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>130</v>
       </c>
@@ -4954,7 +4981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>131</v>
       </c>
@@ -4968,7 +4995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>132</v>
       </c>
@@ -4982,7 +5009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>133</v>
       </c>
@@ -4996,7 +5023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>134</v>
       </c>
@@ -5010,7 +5037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>137</v>
       </c>
@@ -5024,7 +5051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>138</v>
       </c>
@@ -5038,7 +5065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>141</v>
       </c>
@@ -5052,7 +5079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>144</v>
       </c>
@@ -5066,7 +5093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>145</v>
       </c>
@@ -5080,7 +5107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>146</v>
       </c>
@@ -5094,7 +5121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>149</v>
       </c>
@@ -5108,7 +5135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>150</v>
       </c>
@@ -5122,7 +5149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>151</v>
       </c>
@@ -5136,7 +5163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>152</v>
       </c>
@@ -5150,7 +5177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>153</v>
       </c>
@@ -5164,7 +5191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>154</v>
       </c>
@@ -5178,7 +5205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>155</v>
       </c>
@@ -5192,7 +5219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>157</v>
       </c>
@@ -5206,7 +5233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>158</v>
       </c>
@@ -5220,7 +5247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>160</v>
       </c>
@@ -5234,7 +5261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>161</v>
       </c>
@@ -5248,7 +5275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>162</v>
       </c>
@@ -5262,7 +5289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>163</v>
       </c>
@@ -5276,7 +5303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>164</v>
       </c>
@@ -5290,7 +5317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>165</v>
       </c>
@@ -5304,7 +5331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>166</v>
       </c>
@@ -5318,7 +5345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>167</v>
       </c>
@@ -5332,7 +5359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>170</v>
       </c>
@@ -5346,7 +5373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>171</v>
       </c>
@@ -5360,7 +5387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>173</v>
       </c>
@@ -5374,7 +5401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>175</v>
       </c>
@@ -5388,7 +5415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>176</v>
       </c>
@@ -5402,7 +5429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>178</v>
       </c>
@@ -5416,7 +5443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>180</v>
       </c>
@@ -5430,7 +5457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>181</v>
       </c>
@@ -5444,7 +5471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>183</v>
       </c>
@@ -5458,7 +5485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>184</v>
       </c>
@@ -5472,7 +5499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>185</v>
       </c>
@@ -5486,7 +5513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>187</v>
       </c>
@@ -5500,7 +5527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>188</v>
       </c>
@@ -5514,7 +5541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>189</v>
       </c>
@@ -5528,7 +5555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>191</v>
       </c>
@@ -5542,7 +5569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>192</v>
       </c>
@@ -5556,7 +5583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>193</v>
       </c>
@@ -5570,7 +5597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>194</v>
       </c>
@@ -5584,7 +5611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>195</v>
       </c>
@@ -5598,7 +5625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>196</v>
       </c>
@@ -5612,7 +5639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>198</v>
       </c>
@@ -5626,7 +5653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>199</v>
       </c>
@@ -5640,7 +5667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>200</v>
       </c>
@@ -5654,7 +5681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>201</v>
       </c>
@@ -5668,7 +5695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>202</v>
       </c>
@@ -5682,7 +5709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>203</v>
       </c>
@@ -5696,7 +5723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>204</v>
       </c>
@@ -5710,7 +5737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>205</v>
       </c>
@@ -5724,7 +5751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>206</v>
       </c>
@@ -5738,7 +5765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>207</v>
       </c>
@@ -5752,7 +5779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>209</v>
       </c>
@@ -5766,7 +5793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>210</v>
       </c>
@@ -5780,7 +5807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>213</v>
       </c>
@@ -5794,7 +5821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>214</v>
       </c>
@@ -5808,7 +5835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>215</v>
       </c>
@@ -5822,7 +5849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>216</v>
       </c>
@@ -5836,7 +5863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>217</v>
       </c>
@@ -5850,7 +5877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>218</v>
       </c>
@@ -5864,7 +5891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>219</v>
       </c>
@@ -5878,7 +5905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>222</v>
       </c>
@@ -5892,7 +5919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>223</v>
       </c>
@@ -5906,7 +5933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>224</v>
       </c>
@@ -5920,7 +5947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>225</v>
       </c>
@@ -5934,7 +5961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>226</v>
       </c>
@@ -5948,7 +5975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>227</v>
       </c>
@@ -5962,7 +5989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>228</v>
       </c>
@@ -5976,7 +6003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>229</v>
       </c>
@@ -5990,7 +6017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>230</v>
       </c>
@@ -6004,7 +6031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>231</v>
       </c>
@@ -6018,7 +6045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>232</v>
       </c>
@@ -6032,7 +6059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>233</v>
       </c>
@@ -6046,7 +6073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>235</v>
       </c>
@@ -6060,7 +6087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>236</v>
       </c>
@@ -6074,7 +6101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>237</v>
       </c>
@@ -6088,7 +6115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>240</v>
       </c>
@@ -6102,7 +6129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>241</v>
       </c>
@@ -6116,7 +6143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>242</v>
       </c>
@@ -6130,7 +6157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>244</v>
       </c>
@@ -6144,7 +6171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>245</v>
       </c>
@@ -6158,7 +6185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>247</v>
       </c>
@@ -6172,7 +6199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>248</v>
       </c>
@@ -6186,7 +6213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>249</v>
       </c>
@@ -6200,7 +6227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>250</v>
       </c>
@@ -6214,7 +6241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>251</v>
       </c>
@@ -6228,7 +6255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>252</v>
       </c>
@@ -6242,7 +6269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>253</v>
       </c>
@@ -6256,7 +6283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>254</v>
       </c>
@@ -6270,7 +6297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>256</v>
       </c>
@@ -6284,7 +6311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>258</v>
       </c>
@@ -6298,7 +6325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>259</v>
       </c>
@@ -6312,7 +6339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>260</v>
       </c>
@@ -6326,7 +6353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>263</v>
       </c>
@@ -6340,7 +6367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>264</v>
       </c>
@@ -6354,7 +6381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>269</v>
       </c>
@@ -6368,7 +6395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>271</v>
       </c>
@@ -6382,7 +6409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>272</v>
       </c>
@@ -6396,7 +6423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>273</v>
       </c>
@@ -6410,7 +6437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>276</v>
       </c>
@@ -6424,7 +6451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>277</v>
       </c>
@@ -6438,7 +6465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>278</v>
       </c>
@@ -6452,7 +6479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>279</v>
       </c>
@@ -6466,7 +6493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>281</v>
       </c>
@@ -6480,7 +6507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>282</v>
       </c>
@@ -6494,7 +6521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>283</v>
       </c>
@@ -6508,7 +6535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>284</v>
       </c>
@@ -6522,7 +6549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>286</v>
       </c>
@@ -6536,7 +6563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>287</v>
       </c>
@@ -6550,7 +6577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>290</v>
       </c>
@@ -6564,7 +6591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>291</v>
       </c>
@@ -6578,7 +6605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>292</v>
       </c>
@@ -6592,7 +6619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>293</v>
       </c>
@@ -6606,7 +6633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>294</v>
       </c>
@@ -6620,7 +6647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>295</v>
       </c>
@@ -6634,7 +6661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>296</v>
       </c>
@@ -6648,7 +6675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>298</v>
       </c>
@@ -6662,7 +6689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>299</v>
       </c>
@@ -6676,7 +6703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>300</v>
       </c>
@@ -6690,7 +6717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>301</v>
       </c>
@@ -6704,7 +6731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>303</v>
       </c>
@@ -6718,7 +6745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>305</v>
       </c>
@@ -6732,7 +6759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>307</v>
       </c>
@@ -6746,7 +6773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>309</v>
       </c>
@@ -6760,7 +6787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>310</v>
       </c>
@@ -6774,7 +6801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>312</v>
       </c>
@@ -6788,7 +6815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>313</v>
       </c>
@@ -6802,7 +6829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>318</v>
       </c>
@@ -6816,7 +6843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>320</v>
       </c>
@@ -6830,7 +6857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>321</v>
       </c>
@@ -6844,7 +6871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>322</v>
       </c>
@@ -6858,7 +6885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>323</v>
       </c>
@@ -6872,7 +6899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>325</v>
       </c>
@@ -6886,7 +6913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>326</v>
       </c>
@@ -6900,7 +6927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>328</v>
       </c>
@@ -6914,7 +6941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>329</v>
       </c>
@@ -6928,7 +6955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>330</v>
       </c>
@@ -6942,7 +6969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>331</v>
       </c>
@@ -6956,7 +6983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>332</v>
       </c>
@@ -6970,7 +6997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>333</v>
       </c>
@@ -6984,7 +7011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>334</v>
       </c>
@@ -6998,7 +7025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>335</v>
       </c>
@@ -7012,7 +7039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>336</v>
       </c>
@@ -7026,7 +7053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>338</v>
       </c>
@@ -7040,7 +7067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>339</v>
       </c>
@@ -7054,7 +7081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>340</v>
       </c>
@@ -7068,7 +7095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>341</v>
       </c>
@@ -7082,7 +7109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>342</v>
       </c>
@@ -7096,7 +7123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>345</v>
       </c>
@@ -7110,7 +7137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>347</v>
       </c>
@@ -7124,7 +7151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>348</v>
       </c>
@@ -7138,7 +7165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>349</v>
       </c>
@@ -7152,7 +7179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>350</v>
       </c>
@@ -7166,7 +7193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>354</v>
       </c>
@@ -7180,7 +7207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>357</v>
       </c>
@@ -7194,7 +7221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>358</v>
       </c>
@@ -7208,7 +7235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>359</v>
       </c>
@@ -7222,7 +7249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>360</v>
       </c>
@@ -7236,7 +7263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>364</v>
       </c>
@@ -7250,7 +7277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>365</v>
       </c>
@@ -7264,7 +7291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>367</v>
       </c>
@@ -7278,7 +7305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>368</v>
       </c>
@@ -7292,7 +7319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>369</v>
       </c>
@@ -7306,7 +7333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>370</v>
       </c>
@@ -7320,7 +7347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>371</v>
       </c>
@@ -7334,7 +7361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>372</v>
       </c>
@@ -7348,7 +7375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>373</v>
       </c>
@@ -7362,7 +7389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>374</v>
       </c>
@@ -7376,7 +7403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>375</v>
       </c>
@@ -7390,7 +7417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>377</v>
       </c>
@@ -7404,7 +7431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>379</v>
       </c>
@@ -7418,7 +7445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>381</v>
       </c>
@@ -7432,7 +7459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>382</v>
       </c>
@@ -7446,7 +7473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>383</v>
       </c>
@@ -7460,7 +7487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>384</v>
       </c>
@@ -7474,7 +7501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>385</v>
       </c>
@@ -7488,7 +7515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>387</v>
       </c>
@@ -7502,7 +7529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>388</v>
       </c>
@@ -7516,7 +7543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>389</v>
       </c>
@@ -7530,7 +7557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>390</v>
       </c>
@@ -7544,7 +7571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>395</v>
       </c>
@@ -7558,7 +7585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>397</v>
       </c>
@@ -7572,7 +7599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>398</v>
       </c>
@@ -7586,7 +7613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>399</v>
       </c>
@@ -7600,7 +7627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>401</v>
       </c>
@@ -7614,7 +7641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>402</v>
       </c>
@@ -7628,7 +7655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>403</v>
       </c>
@@ -7642,7 +7669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>404</v>
       </c>
@@ -7656,7 +7683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>405</v>
       </c>
@@ -7670,7 +7697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>406</v>
       </c>
@@ -7684,7 +7711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>407</v>
       </c>
@@ -7698,7 +7725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>408</v>
       </c>
@@ -7712,7 +7739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>409</v>
       </c>
@@ -7726,7 +7753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>410</v>
       </c>
@@ -7740,7 +7767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>411</v>
       </c>
@@ -7754,7 +7781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>414</v>
       </c>
@@ -7768,7 +7795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>415</v>
       </c>
@@ -7782,7 +7809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>416</v>
       </c>
@@ -7796,7 +7823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>417</v>
       </c>
@@ -7810,7 +7837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>419</v>
       </c>
@@ -7824,7 +7851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>421</v>
       </c>
@@ -7838,7 +7865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>422</v>
       </c>
@@ -7852,7 +7879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>423</v>
       </c>
@@ -7866,7 +7893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>424</v>
       </c>
@@ -7880,7 +7907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>425</v>
       </c>
@@ -7894,7 +7921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>426</v>
       </c>
@@ -7908,7 +7935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>427</v>
       </c>
@@ -7922,7 +7949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>428</v>
       </c>
@@ -7936,7 +7963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>430</v>
       </c>
@@ -7950,7 +7977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>431</v>
       </c>
@@ -7964,7 +7991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>433</v>
       </c>
@@ -7978,7 +8005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>434</v>
       </c>
@@ -7992,7 +8019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>435</v>
       </c>
@@ -8006,7 +8033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>437</v>
       </c>
@@ -8020,7 +8047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>439</v>
       </c>
@@ -8034,7 +8061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>441</v>
       </c>
@@ -8048,7 +8075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>445</v>
       </c>
@@ -8062,7 +8089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>446</v>
       </c>
@@ -8076,7 +8103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>451</v>
       </c>
@@ -8090,7 +8117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>452</v>
       </c>
@@ -8104,7 +8131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>453</v>
       </c>
@@ -8119,6 +8146,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Data/FB_grouped.xlsx
+++ b/Data/FB_grouped.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivvya\OneDrive\H1B_and_Technology\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thewillisgroup-my.sharepoint.com/personal/isoto_talentpath_com/Documents/H1B_and_Technology/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_50F54F22067462023E1DAA53525ED87656CC2985" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{DAC9D6BC-15A7-4E90-AEDB-E877EE0DB858}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="11_50F54F22067462023E1DAA53525ED87656CC2985" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DAC9D6BC-15A7-4E90-AEDB-E877EE0DB858}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1473,16 +1473,16 @@
   <dxfs count="3">
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color auto="1"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color auto="1"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5628CBF1-597F-4E66-949E-639CA870C471}" name="Table1" displayName="Table1" ref="A1:D450" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5628CBF1-597F-4E66-949E-639CA870C471}" name="Table1" displayName="Table1" ref="A1:D450" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:D450" xr:uid="{C0ECAACB-F87E-4C04-8BE3-5B50F838D3C6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D450">
     <sortCondition descending="1" ref="B1:B450"/>
@@ -1831,20 +1831,20 @@
   <dimension ref="A1:E450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C2" sqref="C2:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="63.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.36328125" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>393</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>98</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>353</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>90</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>297</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>140</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>289</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>436</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>396</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>314</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>143</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>159</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>351</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>72</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>94</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>400</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>449</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>238</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>96</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>266</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>302</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>440</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>172</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>243</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>378</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>255</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>275</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>109</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>386</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>442</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>117</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>311</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>356</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>101</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>139</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>220</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>221</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>288</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>319</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>432</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>447</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>119</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>135</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>148</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>169</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>190</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>262</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>274</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>306</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>308</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>315</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>317</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>392</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>394</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>412</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>438</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>29</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>30</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>48</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>56</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>65</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>75</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>100</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>106</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>110</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>126</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>128</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>136</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>142</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>156</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>168</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>177</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>179</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>182</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>197</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>208</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>211</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>212</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>234</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>239</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>246</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>257</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>261</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>265</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>267</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>268</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>270</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>280</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>285</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>304</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>316</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>324</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>327</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>337</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>343</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>344</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>346</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>352</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>355</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>361</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>362</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>363</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>366</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>376</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>380</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>391</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>413</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>418</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>420</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>429</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>443</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>444</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>448</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>450</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>12</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>14</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>15</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>16</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>18</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>22</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>25</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>26</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>27</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>28</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>31</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>32</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>33</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>35</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>36</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>37</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>38</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>39</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>40</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>41</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>44</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>45</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>46</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>47</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>49</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>50</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>51</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>52</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>53</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>54</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>55</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>57</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>59</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>60</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>61</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>62</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>63</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>64</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>66</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>67</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>69</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>70</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>71</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>74</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>76</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>77</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>79</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>80</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>82</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>83</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>84</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>86</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>87</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>88</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>92</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>93</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>95</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>97</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>102</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>103</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>104</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>105</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>107</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>108</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>111</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>112</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>114</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>115</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>116</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>118</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>120</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>121</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>122</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>123</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>124</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>125</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>127</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>129</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>130</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>131</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>132</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>133</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>134</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>137</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>138</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>141</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>144</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>145</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>146</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>149</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>150</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>151</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>152</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>153</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>154</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>155</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>157</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>158</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>160</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>161</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>162</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>163</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>164</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>165</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>166</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>167</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>170</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>171</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>173</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>175</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>176</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>178</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>180</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>181</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>183</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>184</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>185</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>187</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>188</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>189</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>191</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>192</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>193</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>194</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>195</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>196</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>198</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>199</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>200</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>201</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>202</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>203</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>204</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>205</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>206</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>207</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>209</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>210</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>213</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>214</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>215</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>216</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>217</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>218</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>219</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>222</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>223</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>224</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>225</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>226</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>227</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>228</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>229</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>230</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>231</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>232</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>233</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>235</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>236</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>237</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>240</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>241</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>242</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>244</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>245</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>247</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>248</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>249</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>250</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>251</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>252</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>253</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>254</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>256</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>258</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>259</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>260</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>263</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>264</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>269</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>271</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>272</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>273</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>276</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>277</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>278</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>279</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>281</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>282</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>283</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>284</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>286</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>287</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>290</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>291</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>292</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>293</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>294</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>295</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>296</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>298</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>299</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>300</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>301</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>303</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>305</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>307</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>309</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>310</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>312</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>313</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>318</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>320</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>321</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>322</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>323</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>325</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>326</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>328</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>329</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>330</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>331</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>332</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>333</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>334</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>335</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>336</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>338</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>339</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>340</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>341</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>342</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>345</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>347</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>348</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>349</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>350</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>354</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>357</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>358</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>359</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>360</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>364</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>365</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>367</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>368</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>369</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>370</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>371</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>372</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>373</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>374</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>375</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>377</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>379</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>381</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>382</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>383</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>384</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>385</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>387</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>388</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>389</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>390</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>395</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>397</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>398</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>399</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>401</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>402</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>403</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>404</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>405</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>406</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>407</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>408</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>409</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>410</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>411</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>414</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>415</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>416</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>417</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>419</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>421</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>422</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>423</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>424</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>425</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>426</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>427</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>428</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>430</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>431</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>433</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>434</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>435</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>437</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>439</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>441</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>445</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>446</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>451</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>452</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>453</v>
       </c>
